--- a/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -619,17 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -657,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>117,53%</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,08%</t>
+          <t>-32,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,42</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 1,9</t>
+          <t>-9,08; 3,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,72</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 23,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,30 +820,40 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-57,86%</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,66</t>
+          <t>-7,79; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,21</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,79</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>480,74%</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>202,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>133,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>351,28%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,84</t>
+          <t>-1,95; 7,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,21</t>
+          <t>-2,62; 6,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,66</t>
+          <t>-3,31; 6,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 10,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 789,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,78; 864,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>776,86%</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>269,01%</t>
+          <t>452,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>140,81%</t>
+          <t>-30,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>93,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>118,08%</t>
         </is>
       </c>
     </row>
@@ -962,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,87</t>
+          <t>0,29; 15,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,04</t>
+          <t>-5,5; 4,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 7,56</t>
+          <t>-4,16; 11,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 11,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -986,6 +1092,16 @@
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>8,32</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>508,41%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>270,07%</t>
+          <t>233,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>122,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 14,51</t>
+          <t>-3,44; 17,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,89</t>
+          <t>-6,21; 13,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 22,25</t>
+          <t>0,0; 19,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 23,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1068,6 +1194,16 @@
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-56,96; 891,8</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>268,85%</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>146,33%</t>
+          <t>192,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>288,33%</t>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>211,92%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>306,93%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,31</t>
+          <t>0,54; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,24</t>
+          <t>-1,23; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,83</t>
+          <t>0,22; 3,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,8; 883,62</t>
+          <t>2,69; 9,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 526,93</t>
+          <t>-11,31; 1130,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 1153,14</t>
+          <t>-63,06; 489,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 1239,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>62,42; 1168,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.200064457507812</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +652,132 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>18.94729630225525</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-32,05%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 3,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,68</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 23,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>3.456791387545091</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.8378935314783558</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.411897599486427</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.19066299600257</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3415620170404016</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.107043611951996</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.193864808748019</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,75</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.0821251470821</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.316941530874361</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.089181603493063</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.6036246759522</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +785,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>202,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>133,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>49,64%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>351,28%</t>
+      <c r="C10" s="5" t="n">
+        <v>-1.551142187958535</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.067621967694803</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.95614296484405</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.718263670132053</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,254 +820,138 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 7,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 6,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 6,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 10,38</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.928782727789877</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.079632208567885</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.60500506474014</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.15069825518755</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>452,06%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-30,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>93,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>118,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 15,09</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 4,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 11,84</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 11,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.556965609157774</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.69100889877057</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.329775308244841</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.476203924401609</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.123588599054079</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.52394039516374</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5762251918278716</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>3.598992191951025</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>233,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>122,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>98,3%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.636402676393155</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.160260324556766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.450766879931891</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.04163104541740206</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 17,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 13,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 23,56</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-56,96; 891,8</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.842783045599547</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.802235494295743</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.262021207892309</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.92740314482867</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +959,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>192,18%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>48,08%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>211,92%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>306,93%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.418626690853063</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.3385701877604261</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.970793003586469</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4.052371631624851</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>5.307853364981817</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1414333890525858</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.088838333919836</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.408060276165039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 4,83</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 2,66</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 3,93</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 9,69</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 1130,02</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-63,06; 489,82</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; 1239,24</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>62,42; 1168,08</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.5847609078330817</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.764122393333579</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.469355756699839</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-2.605336164912528</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.89869312613661</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.215011725119028</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.22041033657321</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>12.36584467938274</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>7.879856965539905</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.409198692802983</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8.204080764355639</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>8.432877889798839</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>3.140120522302325</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.809436911554901</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.9814561043077742</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-1.30643151372953</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.260816306517218</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-6.285121835733272</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.5748568900930784</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>18.5338759041259</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>18.64180293887009</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>29.93306342335907</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>24.65574766619195</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>9.7139176565023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.395775877221661</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9699384230355497</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.276824166455219</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>5.811238154545277</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>2.281621269971418</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.6863512562546392</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>2.54399490925585</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>3.377587085975982</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.6933581338279025</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.001707504575074</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4596899754382569</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>3.003500540483118</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.01365430804054944</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6037699876244661</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.001892668247285123</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.7551183985836541</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.664091412974957</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.021551815394592</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.1351910645492</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>10.32415724074929</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>12.41694759078599</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>6.217951538509574</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>15.28100383895416</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>12.99852289501666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1231,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
